--- a/4.-Documentación/Entidades.xlsx
+++ b/4.-Documentación/Entidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mega\2.-CursosyApuntes\DesarrollodeAplicacionesMultiplataforma\1.-Proyectofinalmodulo\4.-Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA5BEC4-ACFB-4473-9A2F-6810DC6F0120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B34F1-ACAF-4F78-8645-55E2130B3927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8625" yWindow="675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>empleado</t>
   </si>
@@ -81,9 +81,6 @@
     <t>servicio</t>
   </si>
   <si>
-    <t>id_Servicio</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Deficiencia</t>
   </si>
   <si>
-    <t>id_Deficiencia</t>
-  </si>
-  <si>
     <t>solucion</t>
   </si>
   <si>
@@ -129,18 +123,12 @@
     <t>Alerta</t>
   </si>
   <si>
-    <t>id_Alerta</t>
-  </si>
-  <si>
     <t>resuelta</t>
   </si>
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>id_Item</t>
-  </si>
-  <si>
     <t>fabricante</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>id_Marca</t>
-  </si>
-  <si>
     <t>id_Modelo</t>
   </si>
   <si>
@@ -169,6 +154,9 @@
   </si>
   <si>
     <t>id_Cliente</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -212,10 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +486,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A6" sqref="A6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,13 +546,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -574,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -582,90 +569,84 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -673,16 +654,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -690,10 +671,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -701,7 +682,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>43</v>
@@ -712,10 +693,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -723,10 +704,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>

--- a/4.-Documentación/Entidades.xlsx
+++ b/4.-Documentación/Entidades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mega\2.-CursosyApuntes\DesarrollodeAplicacionesMultiplataforma\1.-Proyectofinalmodulo\4.-Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mega\2.-CursosyApuntes\DesarrollodeAplicacionesMultiplataforma\1.-Proyectofinalmodulo\4.-Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B34F1-ACAF-4F78-8645-55E2130B3927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2025" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -129,9 +128,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>fabricante</t>
-  </si>
-  <si>
     <t>Marca</t>
   </si>
   <si>
@@ -157,12 +153,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>personInCharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,13 +545,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -562,6 +561,9 @@
       </c>
       <c r="I2" t="s">
         <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -569,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -581,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -603,7 +605,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -626,7 +628,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -637,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -657,24 +659,21 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -682,10 +681,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -693,10 +692,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -704,10 +703,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>

--- a/4.-Documentación/Entidades.xlsx
+++ b/4.-Documentación/Entidades.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mega\2.-CursosyApuntes\DesarrollodeAplicacionesMultiplataforma\1.-Proyectofinalmodulo\4.-Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mega\2.-CursosyApuntes\DesarrollodeAplicacionesMultiplataforma\1.-Proyectofinalmodulo\4.-Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78B8F4-AFF5-4F96-9909-A01BA7C9FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2025" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="10590" yWindow="2085" windowWidth="15660" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>empleado</t>
   </si>
@@ -50,9 +51,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>fecha_nacimiento</t>
-  </si>
-  <si>
     <t>edad</t>
   </si>
   <si>
@@ -71,12 +69,6 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>caducidad_ITV</t>
-  </si>
-  <si>
-    <t>distancia_Total</t>
-  </si>
-  <si>
     <t>servicio</t>
   </si>
   <si>
@@ -89,18 +81,12 @@
     <t>Vehículo_ITV</t>
   </si>
   <si>
-    <t>id_VehiculoITV</t>
-  </si>
-  <si>
     <t>id_ITV</t>
   </si>
   <si>
     <t>resultado_vehiculo</t>
   </si>
   <si>
-    <t>ITV_En_Vigor</t>
-  </si>
-  <si>
     <t>Deficiencia</t>
   </si>
   <si>
@@ -137,31 +123,49 @@
     <t>Color</t>
   </si>
   <si>
-    <t>id_Modelo</t>
-  </si>
-  <si>
-    <t>id_Tipo</t>
-  </si>
-  <si>
-    <t>id_Color</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>id_Cliente</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>personInCharge</t>
+    <t>esAdmin</t>
+  </si>
+  <si>
+    <t>idModelo</t>
+  </si>
+  <si>
+    <t>idTipo</t>
+  </si>
+  <si>
+    <t>idColor</t>
+  </si>
+  <si>
+    <t>caducidadITV</t>
+  </si>
+  <si>
+    <t>distanciaTotal</t>
+  </si>
+  <si>
+    <t>ITVPasada</t>
+  </si>
+  <si>
+    <t>dniEmpleado</t>
+  </si>
+  <si>
+    <t>fechaSolucion</t>
+  </si>
+  <si>
+    <t>fechaNacimiento</t>
+  </si>
+  <si>
+    <t>idVehiculoITV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,25 +485,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,191 +527,200 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>

--- a/4.-Documentación/Entidades.xlsx
+++ b/4.-Documentación/Entidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mega\2.-CursosyApuntes\DesarrollodeAplicacionesMultiplataforma\1.-Proyectofinalmodulo\4.-Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78B8F4-AFF5-4F96-9909-A01BA7C9FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2F3610-BD17-4BC0-84A9-46D2133F915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="2085" windowWidth="15660" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2775" yWindow="630" windowWidth="15660" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>empleado</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>idVehiculoITV</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,10 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
